--- a/sample_travelers.xlsx
+++ b/sample_travelers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yair\Dropbox\Check It Out\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yair\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E1F29-938F-4AAE-91EC-A16D04BD7A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE64B43F-516B-47AE-BB3A-6E3AB8DB47AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25785" yWindow="1680" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24315" yWindow="4155" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>First Name</t>
   </si>
@@ -37,68 +37,119 @@
     <t>Email</t>
   </si>
   <si>
+    <t>שירה</t>
+  </si>
+  <si>
+    <t>דני</t>
+  </si>
+  <si>
+    <t>אורי</t>
+  </si>
+  <si>
+    <t>כהן</t>
+  </si>
+  <si>
+    <t>לוי</t>
+  </si>
+  <si>
+    <t>בן דוד</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>555666777</t>
+  </si>
+  <si>
+    <t>050-1234567</t>
+  </si>
+  <si>
+    <t>052-7654321</t>
+  </si>
+  <si>
+    <t>054-1122334</t>
+  </si>
+  <si>
+    <t>shira@example.com</t>
+  </si>
+  <si>
+    <t>dani@example.com</t>
+  </si>
+  <si>
+    <t>uri@example.com</t>
+  </si>
+  <si>
+    <t>יאיר</t>
+  </si>
+  <si>
+    <t>צדוק</t>
+  </si>
+  <si>
+    <t>yair6655@gmail.com</t>
+  </si>
+  <si>
+    <t>moshe@example.com</t>
+  </si>
+  <si>
+    <t>054-333-3334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כהן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">משה </t>
+  </si>
+  <si>
+    <t>morgan@example.com</t>
+  </si>
+  <si>
+    <t>054-444-3333</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>brad@example.com</t>
+  </si>
+  <si>
+    <t>054-222-2222</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>angelina@example.com</t>
+  </si>
+  <si>
+    <t>054-111-1111</t>
+  </si>
+  <si>
+    <t>923456783</t>
+  </si>
+  <si>
+    <t>Jolie</t>
+  </si>
+  <si>
     <t>Angelina</t>
   </si>
   <si>
-    <t>Brad</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Jolie</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>Freeman</t>
-  </si>
-  <si>
-    <t>923456783</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>987654321</t>
-  </si>
-  <si>
-    <t>054-111-1111</t>
-  </si>
-  <si>
-    <t>054-222-2222</t>
-  </si>
-  <si>
-    <t>054-333-3333</t>
-  </si>
-  <si>
-    <t>angelina@example.com</t>
-  </si>
-  <si>
-    <t>brad@example.com</t>
-  </si>
-  <si>
-    <t>morgan@example.com</t>
-  </si>
-  <si>
-    <t>Zadok</t>
-  </si>
-  <si>
-    <t>Yair</t>
-  </si>
-  <si>
     <t>052-887-6688</t>
-  </si>
-  <si>
-    <t>yair6655@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +161,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,14 +214,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -172,7 +229,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5DAEA972-877C-4610-AD42-67781565149A}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EA74BCEA-90EA-4DC6-A6A1-20F4C8EC6B72}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -472,15 +529,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,75 +562,145 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>123456789</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>123456789</v>
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>4567890123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>987654321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{7F256E31-19BA-4F96-B3BE-A2200750FDE2}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{50DF5262-2A04-4CCB-8C8E-850CCD1FAF1E}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{409884E4-F0AD-4078-B9BB-61F3174FCEBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
